--- a/Fuel Prices in Kenya since 2010 - Sheet1.xlsx
+++ b/Fuel Prices in Kenya since 2010 - Sheet1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DATA-JOHN\Desktop\clone\Fuel-prices-predictor-using-Machine-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C51B25-B213-4D20-86F5-B27C29246E9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D1D310-B78D-45E8-92E9-612502417014}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,10 @@
     <sheet name="working data" sheetId="2" r:id="rId2"/>
     <sheet name="pivot tables" sheetId="3" r:id="rId3"/>
     <sheet name="visualizations" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="4" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -8434,68 +8433,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>234725</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>17340</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D4245C3-A4B2-4D7F-9859-E802552E86EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:duotone>
-            <a:schemeClr val="accent5">
-              <a:shade val="45000"/>
-              <a:satMod val="135000"/>
-            </a:schemeClr>
-            <a:prstClr val="white"/>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3282725" y="361950"/>
-          <a:ext cx="651100" cy="607890"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="DATA-JOHN" refreshedDate="45383.078491435183" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="156" xr:uid="{3470A1C7-1EDF-4145-A35A-1388CEE8A873}">
   <cacheSource type="worksheet">
@@ -18621,28 +18558,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="48" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D5E2FEE-0990-4343-8A14-259D4241D119}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Fuel Prices in Kenya since 2010 - Sheet1.xlsx
+++ b/Fuel Prices in Kenya since 2010 - Sheet1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DATA-JOHN\Desktop\clone\Fuel-prices-predictor-using-Machine-Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D1D310-B78D-45E8-92E9-612502417014}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B502354F-0AC3-446D-AD7D-F9048BA3B523}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8925" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="5" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -7874,7 +7874,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Maximum Drop: 2.41 KES/Litre (from 15/02/2011 to 15/01/2011)</a:t>
+            <a:t>Maximum Drop: 2.41 KES/Litre (from 15/01/2011 to 15/02/2011)</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
@@ -7997,7 +7997,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Maximum Drop: 1.26 KES/Litre (from 15/01/2011 to 15/12/2010)</a:t>
+            <a:t>Maximum Drop: 1.26 KES/Litre (from 15/012/2011 to 15/01/2011)</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB" sz="1100">
             <a:solidFill>
@@ -8127,7 +8127,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>35.58 KES/Litre (from 15/10/2023 to 15/08/2023) </a:t>
+            <a:t>35.58 KES/Litre (from 15/08/2023 to 15/10/2023) </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -8148,7 +8148,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
             </a:rPr>
-            <a:t>Maximum Drop: 3.69 KES/Litre (from 15/02/2011 to 15/12/2010)</a:t>
+            <a:t>Maximum Drop: 3.69 KES/Litre (from 15/12/2010 to 15/02/2011)</a:t>
           </a:r>
           <a:endParaRPr lang="en-GB">
             <a:effectLst/>
@@ -8374,6 +8374,50 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>1. The price of fuel in Kenya rose steadily from 2021 to 2023, with kerosene users being the most affected. The price of kerosene increased by 35 shillings between August 15, 2023 and October 15, 2023.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1400">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>2. The third quarter of the year (from July to September) tends to have the highest average fuel prices, while the first quarter (from January to March) has the lowest average prices.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1400">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>3. The graph shows no significant correlation between the price of Murban crude oil and the mean exchange rate.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-GB" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -8428,6 +8472,178 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAF05D2A-6DF0-466D-BE73-2469D70ECBC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="8953501"/>
+          <a:ext cx="12192000" cy="1343024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:glow rad="63500">
+            <a:schemeClr val="accent5">
+              <a:satMod val="175000"/>
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Recommendations.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1400" b="1">
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" baseline="0">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Excise duty rates on petroleum products were adjusted between 2020 and 2023, affecting the overall cost of fuel. Changes in excise duty rates influenced fuel prices, with increases in duty leading to higher fuel costs for consumers. Measures should be put in place to reduce heavy taxation of petroleum products. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1400">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>2. The reintroduction of the 16% VAT in September 2020 on petroleum products led to an increase in fuel prices, affecting transportation costs and contributing to inflationary pressures. Efforts should be made to reduce the VAT on fuel to a moderate percentage and offload the heavy burden of high fuel prices to ordinary citizens. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-GB" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10091,7 +10307,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B379EFAA-5348-41E9-A5B8-BD1A67F5AB82}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B379EFAA-5348-41E9-A5B8-BD1A67F5AB82}" name="PivotTable3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="A37:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
@@ -10200,7 +10416,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C2FE0B9-585D-461D-9A3C-05D5167CAC30}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2C2FE0B9-585D-461D-9A3C-05D5167CAC30}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="A19:C33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
@@ -10345,7 +10561,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{66C7AFA6-C277-4626-BC0B-585DA1B1F64B}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{66C7AFA6-C277-4626-BC0B-585DA1B1F64B}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
   <location ref="A1:D15" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
@@ -14482,7 +14698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5921B61E-9C1C-4483-B29F-798D9C705BD1}">
   <dimension ref="A1:H157"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -18117,7 +18333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9758184B-F972-4FA5-8156-C0C9FAC16269}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
@@ -18557,14 +18773,14 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="70" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.8" right="0.86" top="0.75" bottom="0.72" header="0.3" footer="0.36"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>